--- a/Code/Results/Cases/Case_1_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.024951116611115</v>
+        <v>5.552930018879517</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.145881291203489</v>
+        <v>8.149557194612376</v>
       </c>
       <c r="E2">
-        <v>10.41975284640315</v>
+        <v>13.25732633479951</v>
       </c>
       <c r="F2">
-        <v>29.21537267402994</v>
+        <v>37.79056479970345</v>
       </c>
       <c r="G2">
-        <v>36.5814535097018</v>
+        <v>43.10513593011221</v>
       </c>
       <c r="H2">
-        <v>11.65705845176034</v>
+        <v>17.72054311372988</v>
       </c>
       <c r="I2">
-        <v>13.98838700480032</v>
+        <v>21.35731689086278</v>
       </c>
       <c r="J2">
-        <v>6.518130344051729</v>
+        <v>10.10502759016736</v>
       </c>
       <c r="K2">
-        <v>18.87697735043241</v>
+        <v>14.85530324584142</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.656738394077452</v>
+        <v>5.429268336183933</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.859612632755704</v>
+        <v>8.108118459319751</v>
       </c>
       <c r="E3">
-        <v>9.97407891098071</v>
+        <v>13.20573248395244</v>
       </c>
       <c r="F3">
-        <v>28.41629905457869</v>
+        <v>37.78938057587226</v>
       </c>
       <c r="G3">
-        <v>35.40055536604253</v>
+        <v>43.05851015898448</v>
       </c>
       <c r="H3">
-        <v>11.58350941428152</v>
+        <v>17.76916508207933</v>
       </c>
       <c r="I3">
-        <v>14.3718154330547</v>
+        <v>21.4821306980641</v>
       </c>
       <c r="J3">
-        <v>6.403313836106578</v>
+        <v>10.11362009541285</v>
       </c>
       <c r="K3">
-        <v>17.61224421425764</v>
+        <v>14.48804979010264</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.419345843494552</v>
+        <v>5.35258890092231</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.679005718224496</v>
+        <v>8.083713616122761</v>
       </c>
       <c r="E4">
-        <v>9.697131102334424</v>
+        <v>13.17670741048135</v>
       </c>
       <c r="F4">
-        <v>27.94829133725479</v>
+        <v>37.79971956108497</v>
       </c>
       <c r="G4">
-        <v>34.70740060115251</v>
+        <v>43.04552441857165</v>
       </c>
       <c r="H4">
-        <v>11.54970907332268</v>
+        <v>17.80292537710034</v>
       </c>
       <c r="I4">
-        <v>14.61395630812937</v>
+        <v>21.5626802002113</v>
       </c>
       <c r="J4">
-        <v>6.336193164881367</v>
+        <v>10.12063183617648</v>
       </c>
       <c r="K4">
-        <v>16.79287572741908</v>
+        <v>14.26053489134801</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.319807560985264</v>
+        <v>5.321196299668718</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.604277426536084</v>
+        <v>8.074036589514336</v>
       </c>
       <c r="E5">
-        <v>9.583586869533347</v>
+        <v>13.16555497847319</v>
       </c>
       <c r="F5">
-        <v>27.76332579620349</v>
+        <v>37.80670982419447</v>
       </c>
       <c r="G5">
-        <v>34.43310434914818</v>
+        <v>43.04415922650757</v>
       </c>
       <c r="H5">
-        <v>11.53867254370493</v>
+        <v>17.81766219055466</v>
       </c>
       <c r="I5">
-        <v>14.71433991273414</v>
+        <v>21.59649105473644</v>
       </c>
       <c r="J5">
-        <v>6.309690939137226</v>
+        <v>10.1239255354741</v>
       </c>
       <c r="K5">
-        <v>16.44812403264662</v>
+        <v>14.16745120350679</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.303111789730681</v>
+        <v>5.31597612642778</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.591803451992131</v>
+        <v>8.072446118580869</v>
       </c>
       <c r="E6">
-        <v>9.564696133262776</v>
+        <v>13.16374414955715</v>
       </c>
       <c r="F6">
-        <v>27.73296132967245</v>
+        <v>37.80803807487035</v>
       </c>
       <c r="G6">
-        <v>34.38805493967009</v>
+        <v>43.04416940858334</v>
       </c>
       <c r="H6">
-        <v>11.53700175573522</v>
+        <v>17.82016827864129</v>
       </c>
       <c r="I6">
-        <v>14.73111240516234</v>
+        <v>21.60216495640679</v>
       </c>
       <c r="J6">
-        <v>6.305341601988372</v>
+        <v>10.1244988000399</v>
       </c>
       <c r="K6">
-        <v>16.39022048330577</v>
+        <v>14.151976568847</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.418014700675763</v>
+        <v>5.352166057936121</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.678002354367622</v>
+        <v>8.083582013701161</v>
       </c>
       <c r="E7">
-        <v>9.69560237592893</v>
+        <v>13.17655425946845</v>
       </c>
       <c r="F7">
-        <v>27.94577346755042</v>
+        <v>37.79980259912197</v>
       </c>
       <c r="G7">
-        <v>34.7036680894571</v>
+        <v>43.04549012091873</v>
       </c>
       <c r="H7">
-        <v>11.54954930570081</v>
+        <v>17.80312016225514</v>
       </c>
       <c r="I7">
-        <v>14.61530316716699</v>
+        <v>21.5631321888603</v>
       </c>
       <c r="J7">
-        <v>6.335832304794073</v>
+        <v>10.120674489648</v>
       </c>
       <c r="K7">
-        <v>16.78827033366479</v>
+        <v>14.25928084120442</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.900361865222187</v>
+        <v>5.510472918586279</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.048227312511116</v>
+        <v>8.135057803236011</v>
       </c>
       <c r="E8">
-        <v>10.2668503083606</v>
+        <v>13.23899115261819</v>
       </c>
       <c r="F8">
-        <v>28.93519583485397</v>
+        <v>37.78785692745659</v>
       </c>
       <c r="G8">
-        <v>36.16774389752302</v>
+        <v>43.08580990110261</v>
       </c>
       <c r="H8">
-        <v>11.62927017741198</v>
+        <v>17.7364954488279</v>
       </c>
       <c r="I8">
-        <v>14.11921167651434</v>
+        <v>21.3995418346211</v>
       </c>
       <c r="J8">
-        <v>6.477841411073197</v>
+        <v>10.10762993947368</v>
       </c>
       <c r="K8">
-        <v>18.44972977428262</v>
+        <v>14.72917458271818</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.7550867592977</v>
+        <v>5.813131430572724</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.732777182068291</v>
+        <v>8.243924173531919</v>
       </c>
       <c r="E9">
-        <v>11.35558722935926</v>
+        <v>13.38209004825429</v>
       </c>
       <c r="F9">
-        <v>31.05208739243284</v>
+        <v>37.85239893187715</v>
       </c>
       <c r="G9">
-        <v>39.28569552414027</v>
+        <v>43.28910006660438</v>
       </c>
       <c r="H9">
-        <v>11.88095817052152</v>
+        <v>17.63696967150023</v>
       </c>
       <c r="I9">
-        <v>13.19880816375657</v>
+        <v>21.10968858541722</v>
       </c>
       <c r="J9">
-        <v>6.783073081998142</v>
+        <v>10.09582651939031</v>
       </c>
       <c r="K9">
-        <v>21.37243201507087</v>
+        <v>15.6288564345665</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.326203761894577</v>
+        <v>6.0284549801062</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.207267850905866</v>
+        <v>8.328292370098843</v>
       </c>
       <c r="E10">
-        <v>12.13077865357787</v>
+        <v>13.49924051263121</v>
       </c>
       <c r="F10">
-        <v>32.71174724691834</v>
+        <v>37.95353841823655</v>
       </c>
       <c r="G10">
-        <v>41.71973691749689</v>
+        <v>43.5140397143682</v>
       </c>
       <c r="H10">
-        <v>12.13104850095474</v>
+        <v>17.58299535948141</v>
       </c>
       <c r="I10">
-        <v>12.55362513487394</v>
+        <v>20.91545304880825</v>
       </c>
       <c r="J10">
-        <v>7.023640831983219</v>
+        <v>10.09555263202793</v>
       </c>
       <c r="K10">
-        <v>23.32190433316352</v>
+        <v>16.26938719657515</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.573554095029841</v>
+        <v>6.124442598580352</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.416525435360814</v>
+        <v>8.367525447167949</v>
       </c>
       <c r="E11">
-        <v>12.47733725832334</v>
+        <v>13.55500621858627</v>
       </c>
       <c r="F11">
-        <v>33.48908140750787</v>
+        <v>38.01118908195101</v>
       </c>
       <c r="G11">
-        <v>42.85730988959512</v>
+        <v>43.63265573710759</v>
       </c>
       <c r="H11">
-        <v>12.26046299719328</v>
+        <v>17.56263279012043</v>
       </c>
       <c r="I11">
-        <v>12.26676856128435</v>
+        <v>20.83112423414241</v>
       </c>
       <c r="J11">
-        <v>7.136658062413055</v>
+        <v>10.09724897663059</v>
       </c>
       <c r="K11">
-        <v>24.16744370810545</v>
+        <v>16.55497511731584</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.665425500916356</v>
+        <v>6.160474783206904</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.494797047978197</v>
+        <v>8.382495940104961</v>
       </c>
       <c r="E12">
-        <v>12.60766181125972</v>
+        <v>13.57646622736699</v>
       </c>
       <c r="F12">
-        <v>33.78665678916995</v>
+        <v>38.03468802976667</v>
       </c>
       <c r="G12">
-        <v>43.29243326942578</v>
+        <v>43.67989695531821</v>
       </c>
       <c r="H12">
-        <v>12.3118412669749</v>
+        <v>17.55552715076233</v>
       </c>
       <c r="I12">
-        <v>12.15910422389488</v>
+        <v>20.79976838798393</v>
       </c>
       <c r="J12">
-        <v>7.179975851698349</v>
+        <v>10.09815270496816</v>
       </c>
       <c r="K12">
-        <v>24.48183837247083</v>
+        <v>16.66218456240085</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.645719184171131</v>
+        <v>6.152729184198655</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.47798322649041</v>
+        <v>8.379266860740502</v>
       </c>
       <c r="E13">
-        <v>12.57963489208964</v>
+        <v>13.57182939861493</v>
       </c>
       <c r="F13">
-        <v>33.72242512811534</v>
+        <v>38.02955305331317</v>
       </c>
       <c r="G13">
-        <v>43.19852767605732</v>
+        <v>43.66961970060873</v>
       </c>
       <c r="H13">
-        <v>12.30066859010427</v>
+        <v>17.55703052000727</v>
       </c>
       <c r="I13">
-        <v>12.18224863735241</v>
+        <v>20.80649576853126</v>
       </c>
       <c r="J13">
-        <v>7.170623304183837</v>
+        <v>10.09794645611143</v>
       </c>
       <c r="K13">
-        <v>24.41438305732096</v>
+        <v>16.63913830020183</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.581148386269771</v>
+        <v>6.127413510811626</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.422984412353195</v>
+        <v>8.368754850272561</v>
       </c>
       <c r="E14">
-        <v>12.48807749935065</v>
+        <v>13.55676495333292</v>
       </c>
       <c r="F14">
-        <v>33.5134985121822</v>
+        <v>38.01308897090595</v>
       </c>
       <c r="G14">
-        <v>42.89302040770038</v>
+        <v>43.63649584831057</v>
       </c>
       <c r="H14">
-        <v>12.26464167941563</v>
+        <v>17.56203606093777</v>
       </c>
       <c r="I14">
-        <v>12.25789158796819</v>
+        <v>20.82853300337432</v>
       </c>
       <c r="J14">
-        <v>7.140211362875121</v>
+        <v>10.09731809215939</v>
       </c>
       <c r="K14">
-        <v>24.19342437038917</v>
+        <v>16.56381463481776</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.541363140387721</v>
+        <v>6.111864785142473</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.389169287307467</v>
+        <v>8.36233048875622</v>
       </c>
       <c r="E15">
-        <v>12.43187678323877</v>
+        <v>13.54758178795442</v>
       </c>
       <c r="F15">
-        <v>33.38594444644528</v>
+        <v>38.00322123191124</v>
       </c>
       <c r="G15">
-        <v>42.70645560996851</v>
+        <v>43.61650854583734</v>
       </c>
       <c r="H15">
-        <v>12.24288668155948</v>
+        <v>17.56518099199902</v>
       </c>
       <c r="I15">
-        <v>12.30435077486536</v>
+        <v>20.84210661837088</v>
       </c>
       <c r="J15">
-        <v>7.121651203481652</v>
+        <v>10.09696722096268</v>
       </c>
       <c r="K15">
-        <v>24.05733090337993</v>
+        <v>16.51755182601697</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.309787780049032</v>
+        <v>6.022139493383339</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.1934576466792</v>
+        <v>8.325744809820389</v>
       </c>
       <c r="E16">
-        <v>12.10800440184768</v>
+        <v>13.49564477195848</v>
       </c>
       <c r="F16">
-        <v>32.66139565652461</v>
+        <v>37.95000459742543</v>
       </c>
       <c r="G16">
-        <v>41.64600152733097</v>
+        <v>43.50661418862744</v>
       </c>
       <c r="H16">
-        <v>12.12291619171653</v>
+        <v>17.58441065496405</v>
       </c>
       <c r="I16">
-        <v>12.57250586233196</v>
+        <v>20.92104506809713</v>
       </c>
       <c r="J16">
-        <v>7.016327352407528</v>
+        <v>10.09547837513882</v>
       </c>
       <c r="K16">
-        <v>23.26582760256021</v>
+        <v>16.25059774871679</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.164529647176577</v>
+        <v>5.966568025791917</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.071688019938879</v>
+        <v>8.303512976967991</v>
       </c>
       <c r="E17">
-        <v>11.90773035195663</v>
+        <v>13.46440757913223</v>
       </c>
       <c r="F17">
-        <v>32.22262214306979</v>
+        <v>37.92033597669248</v>
       </c>
       <c r="G17">
-        <v>41.00318449979044</v>
+        <v>43.44335801591705</v>
       </c>
       <c r="H17">
-        <v>12.05341197296772</v>
+        <v>17.59728266528927</v>
       </c>
       <c r="I17">
-        <v>12.73871273035524</v>
+        <v>20.97050207624563</v>
       </c>
       <c r="J17">
-        <v>6.952634736110136</v>
+        <v>10.09503109744189</v>
       </c>
       <c r="K17">
-        <v>22.76979031243425</v>
+        <v>16.08527008478584</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.079808703666503</v>
+        <v>5.934421775655519</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.001029661571456</v>
+        <v>8.290806704306329</v>
       </c>
       <c r="E18">
-        <v>11.7919665706109</v>
+        <v>13.44667438994836</v>
       </c>
       <c r="F18">
-        <v>31.97235242493087</v>
+        <v>37.90436766655741</v>
       </c>
       <c r="G18">
-        <v>40.63630357074268</v>
+        <v>43.40850941780053</v>
       </c>
       <c r="H18">
-        <v>12.01490044710646</v>
+        <v>17.60508060008631</v>
       </c>
       <c r="I18">
-        <v>12.83493454365783</v>
+        <v>20.99932786110949</v>
       </c>
       <c r="J18">
-        <v>6.916337025343008</v>
+        <v>10.09494526831799</v>
       </c>
       <c r="K18">
-        <v>22.4805874543409</v>
+        <v>15.98963839826362</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.050922508239998</v>
+        <v>5.923507246131175</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.977000358729573</v>
+        <v>8.286518741818433</v>
       </c>
       <c r="E19">
-        <v>11.75267420822381</v>
+        <v>13.44071074494411</v>
       </c>
       <c r="F19">
-        <v>31.88797680917191</v>
+        <v>37.89914951235563</v>
       </c>
       <c r="G19">
-        <v>40.51257490993541</v>
+        <v>43.39697435504051</v>
       </c>
       <c r="H19">
-        <v>12.00210911509544</v>
+        <v>17.60778848468058</v>
       </c>
       <c r="I19">
-        <v>12.86762073431937</v>
+        <v>21.00915299962748</v>
       </c>
       <c r="J19">
-        <v>6.90410494710271</v>
+        <v>10.09494566451849</v>
       </c>
       <c r="K19">
-        <v>22.3819951263479</v>
+        <v>15.95716976990753</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.180113997629951</v>
+        <v>5.97250289718358</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.084714931276406</v>
+        <v>8.305871286141727</v>
       </c>
       <c r="E20">
-        <v>11.92910932969938</v>
+        <v>13.46770874482238</v>
       </c>
       <c r="F20">
-        <v>32.26911296836548</v>
+        <v>37.92338082749906</v>
       </c>
       <c r="G20">
-        <v>41.07131874261346</v>
+        <v>43.44993303046454</v>
       </c>
       <c r="H20">
-        <v>12.06065826920702</v>
+        <v>17.59587159041271</v>
       </c>
       <c r="I20">
-        <v>12.72095512623419</v>
+        <v>20.96519803822289</v>
       </c>
       <c r="J20">
-        <v>6.959380059291203</v>
+        <v>10.0950609713675</v>
       </c>
       <c r="K20">
-        <v>22.82299647745408</v>
+        <v>16.10292611866285</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.600163111963546</v>
+        <v>6.134858177492679</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.439165339855287</v>
+        <v>8.371839466904952</v>
       </c>
       <c r="E21">
-        <v>12.51499499446944</v>
+        <v>13.56118054987299</v>
       </c>
       <c r="F21">
-        <v>33.57477783643076</v>
+        <v>38.01787966531521</v>
       </c>
       <c r="G21">
-        <v>42.98263701108308</v>
+        <v>43.64616222670414</v>
       </c>
       <c r="H21">
-        <v>12.27515830613872</v>
+        <v>17.56054936663097</v>
       </c>
       <c r="I21">
-        <v>12.23564719496913</v>
+        <v>20.82204447070198</v>
       </c>
       <c r="J21">
-        <v>7.149129893525082</v>
+        <v>10.0974955692389</v>
       </c>
       <c r="K21">
-        <v>24.25848129393492</v>
+        <v>16.58596522088396</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.86422961960859</v>
+        <v>6.23910951113425</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.665163842614634</v>
+        <v>8.415612405820111</v>
       </c>
       <c r="E22">
-        <v>12.89260083062939</v>
+        <v>13.62426117867986</v>
       </c>
       <c r="F22">
-        <v>34.44687989561213</v>
+        <v>38.08935742058014</v>
       </c>
       <c r="G22">
-        <v>44.25718975847956</v>
+        <v>43.78794309362857</v>
       </c>
       <c r="H22">
-        <v>12.42922947233427</v>
+        <v>17.54099304806429</v>
       </c>
       <c r="I22">
-        <v>11.92409036858995</v>
+        <v>20.73185147214712</v>
       </c>
       <c r="J22">
-        <v>7.276182603627725</v>
+        <v>10.10060979905718</v>
       </c>
       <c r="K22">
-        <v>25.16296547045679</v>
+        <v>16.89615843501431</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.72424947652974</v>
+        <v>6.183649070952803</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.54506634037727</v>
+        <v>8.392192675348369</v>
       </c>
       <c r="E23">
-        <v>12.69155727219022</v>
+        <v>13.59041606095032</v>
       </c>
       <c r="F23">
-        <v>33.9796934995822</v>
+        <v>38.05032188735918</v>
       </c>
       <c r="G23">
-        <v>43.57459867217752</v>
+        <v>43.71104092326956</v>
       </c>
       <c r="H23">
-        <v>12.34568767101462</v>
+        <v>17.55110691889725</v>
       </c>
       <c r="I23">
-        <v>12.08985425583822</v>
+        <v>20.77968177180113</v>
       </c>
       <c r="J23">
-        <v>7.208091066244549</v>
+        <v>10.09880851106497</v>
       </c>
       <c r="K23">
-        <v>24.68325666684114</v>
+        <v>16.7311378301814</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.173072081648511</v>
+        <v>5.969820354328211</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.078827491773152</v>
+        <v>8.304804859958349</v>
       </c>
       <c r="E24">
-        <v>11.91944583318588</v>
+        <v>13.46621558449121</v>
       </c>
       <c r="F24">
-        <v>32.24808827674864</v>
+        <v>37.9220008591951</v>
       </c>
       <c r="G24">
-        <v>41.04050689232731</v>
+        <v>43.44695573593714</v>
       </c>
       <c r="H24">
-        <v>12.05737771961242</v>
+        <v>17.59650829892038</v>
       </c>
       <c r="I24">
-        <v>12.72898126102853</v>
+        <v>20.96759477171392</v>
       </c>
       <c r="J24">
-        <v>6.956329502242675</v>
+        <v>10.09504693170549</v>
       </c>
       <c r="K24">
-        <v>22.79895451612441</v>
+        <v>16.09494563248269</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.53378172025667</v>
+        <v>5.73233311627019</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.552402454972518</v>
+        <v>8.213669708196267</v>
       </c>
       <c r="E25">
-        <v>11.06507488631467</v>
+        <v>13.34122307107216</v>
       </c>
       <c r="F25">
-        <v>30.460881585793</v>
+        <v>37.82550284960551</v>
       </c>
       <c r="G25">
-        <v>38.41660785671876</v>
+        <v>43.22080287479503</v>
       </c>
       <c r="H25">
-        <v>11.80192861756272</v>
+        <v>17.66054348114377</v>
       </c>
       <c r="I25">
-        <v>13.44230049466097</v>
+        <v>21.18480376476461</v>
       </c>
       <c r="J25">
-        <v>6.697638569170647</v>
+        <v>10.09754431064214</v>
       </c>
       <c r="K25">
-        <v>20.61702193591753</v>
+        <v>15.3885727167179</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.552930018879517</v>
+        <v>7.024951116611124</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.149557194612376</v>
+        <v>6.145881291203525</v>
       </c>
       <c r="E2">
-        <v>13.25732633479951</v>
+        <v>10.41975284640316</v>
       </c>
       <c r="F2">
-        <v>37.79056479970345</v>
+        <v>29.21537267402994</v>
       </c>
       <c r="G2">
-        <v>43.10513593011221</v>
+        <v>36.58145350970184</v>
       </c>
       <c r="H2">
-        <v>17.72054311372988</v>
+        <v>11.65705845176033</v>
       </c>
       <c r="I2">
-        <v>21.35731689086278</v>
+        <v>13.98838700480032</v>
       </c>
       <c r="J2">
-        <v>10.10502759016736</v>
+        <v>6.518130344051724</v>
       </c>
       <c r="K2">
-        <v>14.85530324584142</v>
+        <v>18.87697735043239</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.429268336183933</v>
+        <v>6.656738394077526</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.108118459319751</v>
+        <v>5.859612632755681</v>
       </c>
       <c r="E3">
-        <v>13.20573248395244</v>
+        <v>9.974078910980692</v>
       </c>
       <c r="F3">
-        <v>37.78938057587226</v>
+        <v>28.41629905457867</v>
       </c>
       <c r="G3">
-        <v>43.05851015898448</v>
+        <v>35.40055536604262</v>
       </c>
       <c r="H3">
-        <v>17.76916508207933</v>
+        <v>11.58350941428146</v>
       </c>
       <c r="I3">
-        <v>21.4821306980641</v>
+        <v>14.37181543305444</v>
       </c>
       <c r="J3">
-        <v>10.11362009541285</v>
+        <v>6.40331383610661</v>
       </c>
       <c r="K3">
-        <v>14.48804979010264</v>
+        <v>17.61224421425759</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.35258890092231</v>
+        <v>6.419345843494627</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.083713616122761</v>
+        <v>5.679005718224408</v>
       </c>
       <c r="E4">
-        <v>13.17670741048135</v>
+        <v>9.697131102334401</v>
       </c>
       <c r="F4">
-        <v>37.79971956108497</v>
+        <v>27.94829133725448</v>
       </c>
       <c r="G4">
-        <v>43.04552441857165</v>
+        <v>34.70740060115226</v>
       </c>
       <c r="H4">
-        <v>17.80292537710034</v>
+        <v>11.54970907332249</v>
       </c>
       <c r="I4">
-        <v>21.5626802002113</v>
+        <v>14.61395630812911</v>
       </c>
       <c r="J4">
-        <v>10.12063183617648</v>
+        <v>6.336193164881373</v>
       </c>
       <c r="K4">
-        <v>14.26053489134801</v>
+        <v>16.79287572741917</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.321196299668718</v>
+        <v>6.319807560985367</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.074036589514336</v>
+        <v>5.604277426535996</v>
       </c>
       <c r="E5">
-        <v>13.16555497847319</v>
+        <v>9.583586869533312</v>
       </c>
       <c r="F5">
-        <v>37.80670982419447</v>
+        <v>27.76332579620342</v>
       </c>
       <c r="G5">
-        <v>43.04415922650757</v>
+        <v>34.43310434914819</v>
       </c>
       <c r="H5">
-        <v>17.81766219055466</v>
+        <v>11.53867254370489</v>
       </c>
       <c r="I5">
-        <v>21.59649105473644</v>
+        <v>14.71433991273408</v>
       </c>
       <c r="J5">
-        <v>10.1239255354741</v>
+        <v>6.309690939137204</v>
       </c>
       <c r="K5">
-        <v>14.16745120350679</v>
+        <v>16.44812403264665</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.31597612642778</v>
+        <v>6.303111789730682</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.072446118580869</v>
+        <v>5.59180345199212</v>
       </c>
       <c r="E6">
-        <v>13.16374414955715</v>
+        <v>9.564696133262746</v>
       </c>
       <c r="F6">
-        <v>37.80803807487035</v>
+        <v>27.73296132967231</v>
       </c>
       <c r="G6">
-        <v>43.04416940858334</v>
+        <v>34.3880549396699</v>
       </c>
       <c r="H6">
-        <v>17.82016827864129</v>
+        <v>11.53700175573517</v>
       </c>
       <c r="I6">
-        <v>21.60216495640679</v>
+        <v>14.73111240516234</v>
       </c>
       <c r="J6">
-        <v>10.1244988000399</v>
+        <v>6.305341601988401</v>
       </c>
       <c r="K6">
-        <v>14.151976568847</v>
+        <v>16.3902204833058</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.352166057936121</v>
+        <v>6.418014700675798</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.083582013701161</v>
+        <v>5.678002354367622</v>
       </c>
       <c r="E7">
-        <v>13.17655425946845</v>
+        <v>9.695602375928964</v>
       </c>
       <c r="F7">
-        <v>37.79980259912197</v>
+        <v>27.94577346755044</v>
       </c>
       <c r="G7">
-        <v>43.04549012091873</v>
+        <v>34.70366808945717</v>
       </c>
       <c r="H7">
-        <v>17.80312016225514</v>
+        <v>11.54954930570076</v>
       </c>
       <c r="I7">
-        <v>21.5631321888603</v>
+        <v>14.61530316716699</v>
       </c>
       <c r="J7">
-        <v>10.120674489648</v>
+        <v>6.335832304794094</v>
       </c>
       <c r="K7">
-        <v>14.25928084120442</v>
+        <v>16.7882703336648</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.510472918586279</v>
+        <v>6.90036186522218</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.135057803236011</v>
+        <v>6.048227312511094</v>
       </c>
       <c r="E8">
-        <v>13.23899115261819</v>
+        <v>10.26685030836058</v>
       </c>
       <c r="F8">
-        <v>37.78785692745659</v>
+        <v>28.93519583485394</v>
       </c>
       <c r="G8">
-        <v>43.08580990110261</v>
+        <v>36.16774389752309</v>
       </c>
       <c r="H8">
-        <v>17.7364954488279</v>
+        <v>11.62927017741194</v>
       </c>
       <c r="I8">
-        <v>21.3995418346211</v>
+        <v>14.11921167651427</v>
       </c>
       <c r="J8">
-        <v>10.10762993947368</v>
+        <v>6.4778414110732</v>
       </c>
       <c r="K8">
-        <v>14.72917458271818</v>
+        <v>18.44972977428262</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.813131430572724</v>
+        <v>7.755086759297737</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.243924173531919</v>
+        <v>6.732777182068285</v>
       </c>
       <c r="E9">
-        <v>13.38209004825429</v>
+        <v>11.35558722935926</v>
       </c>
       <c r="F9">
-        <v>37.85239893187715</v>
+        <v>31.05208739243291</v>
       </c>
       <c r="G9">
-        <v>43.28910006660438</v>
+        <v>39.28569552414037</v>
       </c>
       <c r="H9">
-        <v>17.63696967150023</v>
+        <v>11.88095817052164</v>
       </c>
       <c r="I9">
-        <v>21.10968858541722</v>
+        <v>13.19880816375674</v>
       </c>
       <c r="J9">
-        <v>10.09582651939031</v>
+        <v>6.78307308199814</v>
       </c>
       <c r="K9">
-        <v>15.6288564345665</v>
+        <v>21.37243201507086</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.0284549801062</v>
+        <v>8.32620376189454</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.328292370098843</v>
+        <v>7.207267850905866</v>
       </c>
       <c r="E10">
-        <v>13.49924051263121</v>
+        <v>12.13077865357786</v>
       </c>
       <c r="F10">
-        <v>37.95353841823655</v>
+        <v>32.71174724691841</v>
       </c>
       <c r="G10">
-        <v>43.5140397143682</v>
+        <v>41.71973691749698</v>
       </c>
       <c r="H10">
-        <v>17.58299535948141</v>
+        <v>12.13104850095474</v>
       </c>
       <c r="I10">
-        <v>20.91545304880825</v>
+        <v>12.55362513487401</v>
       </c>
       <c r="J10">
-        <v>10.09555263202793</v>
+        <v>7.023640831983181</v>
       </c>
       <c r="K10">
-        <v>16.26938719657515</v>
+        <v>23.32190433316351</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.124442598580352</v>
+        <v>8.573554095029785</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.367525447167949</v>
+        <v>7.41652543536077</v>
       </c>
       <c r="E11">
-        <v>13.55500621858627</v>
+        <v>12.47733725832332</v>
       </c>
       <c r="F11">
-        <v>38.01118908195101</v>
+        <v>33.48908140750784</v>
       </c>
       <c r="G11">
-        <v>43.63265573710759</v>
+        <v>42.85730988959511</v>
       </c>
       <c r="H11">
-        <v>17.56263279012043</v>
+        <v>12.26046299719328</v>
       </c>
       <c r="I11">
-        <v>20.83112423414241</v>
+        <v>12.26676856128435</v>
       </c>
       <c r="J11">
-        <v>10.09724897663059</v>
+        <v>7.136658062413089</v>
       </c>
       <c r="K11">
-        <v>16.55497511731584</v>
+        <v>24.16744370810547</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.160474783206904</v>
+        <v>8.665425500916388</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.382495940104961</v>
+        <v>7.494797047978187</v>
       </c>
       <c r="E12">
-        <v>13.57646622736699</v>
+        <v>12.60766181125973</v>
       </c>
       <c r="F12">
-        <v>38.03468802976667</v>
+        <v>33.78665678916992</v>
       </c>
       <c r="G12">
-        <v>43.67989695531821</v>
+        <v>43.29243326942569</v>
       </c>
       <c r="H12">
-        <v>17.55552715076233</v>
+        <v>12.31184126697497</v>
       </c>
       <c r="I12">
-        <v>20.79976838798393</v>
+        <v>12.15910422389496</v>
       </c>
       <c r="J12">
-        <v>10.09815270496816</v>
+        <v>7.179975851698373</v>
       </c>
       <c r="K12">
-        <v>16.66218456240085</v>
+        <v>24.48183837247077</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.152729184198655</v>
+        <v>8.645719184171206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.379266860740502</v>
+        <v>7.477983226490435</v>
       </c>
       <c r="E13">
-        <v>13.57182939861493</v>
+        <v>12.5796348920896</v>
       </c>
       <c r="F13">
-        <v>38.02955305331317</v>
+        <v>33.72242512811535</v>
       </c>
       <c r="G13">
-        <v>43.66961970060873</v>
+        <v>43.19852767605727</v>
       </c>
       <c r="H13">
-        <v>17.55703052000727</v>
+        <v>12.3006685901043</v>
       </c>
       <c r="I13">
-        <v>20.80649576853126</v>
+        <v>12.1822486373524</v>
       </c>
       <c r="J13">
-        <v>10.09794645611143</v>
+        <v>7.170623304183792</v>
       </c>
       <c r="K13">
-        <v>16.63913830020183</v>
+        <v>24.41438305732095</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.127413510811626</v>
+        <v>8.581148386269808</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.368754850272561</v>
+        <v>7.422984412353197</v>
       </c>
       <c r="E14">
-        <v>13.55676495333292</v>
+        <v>12.48807749935068</v>
       </c>
       <c r="F14">
-        <v>38.01308897090595</v>
+        <v>33.5134985121822</v>
       </c>
       <c r="G14">
-        <v>43.63649584831057</v>
+        <v>42.89302040770033</v>
       </c>
       <c r="H14">
-        <v>17.56203606093777</v>
+        <v>12.26464167941566</v>
       </c>
       <c r="I14">
-        <v>20.82853300337432</v>
+        <v>12.25789158796813</v>
       </c>
       <c r="J14">
-        <v>10.09731809215939</v>
+        <v>7.140211362875148</v>
       </c>
       <c r="K14">
-        <v>16.56381463481776</v>
+        <v>24.19342437038917</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.111864785142473</v>
+        <v>8.541363140387761</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.36233048875622</v>
+        <v>7.389169287307476</v>
       </c>
       <c r="E15">
-        <v>13.54758178795442</v>
+        <v>12.43187678323877</v>
       </c>
       <c r="F15">
-        <v>38.00322123191124</v>
+        <v>33.38594444644517</v>
       </c>
       <c r="G15">
-        <v>43.61650854583734</v>
+        <v>42.70645560996844</v>
       </c>
       <c r="H15">
-        <v>17.56518099199902</v>
+        <v>12.24288668155945</v>
       </c>
       <c r="I15">
-        <v>20.84210661837088</v>
+        <v>12.30435077486532</v>
       </c>
       <c r="J15">
-        <v>10.09696722096268</v>
+        <v>7.121651203481639</v>
       </c>
       <c r="K15">
-        <v>16.51755182601697</v>
+        <v>24.05733090337991</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.022139493383339</v>
+        <v>8.309787780049007</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.325744809820389</v>
+        <v>7.193457646679195</v>
       </c>
       <c r="E16">
-        <v>13.49564477195848</v>
+        <v>12.1080044018477</v>
       </c>
       <c r="F16">
-        <v>37.95000459742543</v>
+        <v>32.66139565652445</v>
       </c>
       <c r="G16">
-        <v>43.50661418862744</v>
+        <v>41.6460015273308</v>
       </c>
       <c r="H16">
-        <v>17.58441065496405</v>
+        <v>12.12291619171645</v>
       </c>
       <c r="I16">
-        <v>20.92104506809713</v>
+        <v>12.57250586233192</v>
       </c>
       <c r="J16">
-        <v>10.09547837513882</v>
+        <v>7.016327352407584</v>
       </c>
       <c r="K16">
-        <v>16.25059774871679</v>
+        <v>23.26582760256035</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.966568025791917</v>
+        <v>8.164529647176479</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.303512976967991</v>
+        <v>7.071688019938787</v>
       </c>
       <c r="E17">
-        <v>13.46440757913223</v>
+        <v>11.90773035195661</v>
       </c>
       <c r="F17">
-        <v>37.92033597669248</v>
+        <v>32.22262214306976</v>
       </c>
       <c r="G17">
-        <v>43.44335801591705</v>
+        <v>41.00318449979048</v>
       </c>
       <c r="H17">
-        <v>17.59728266528927</v>
+        <v>12.05341197296772</v>
       </c>
       <c r="I17">
-        <v>20.97050207624563</v>
+        <v>12.73871273035546</v>
       </c>
       <c r="J17">
-        <v>10.09503109744189</v>
+        <v>6.952634736110157</v>
       </c>
       <c r="K17">
-        <v>16.08527008478584</v>
+        <v>22.76979031243425</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.934421775655519</v>
+        <v>8.079808703666503</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.290806704306329</v>
+        <v>7.001029661571498</v>
       </c>
       <c r="E18">
-        <v>13.44667438994836</v>
+        <v>11.79196657061094</v>
       </c>
       <c r="F18">
-        <v>37.90436766655741</v>
+        <v>31.97235242493087</v>
       </c>
       <c r="G18">
-        <v>43.40850941780053</v>
+        <v>40.63630357074265</v>
       </c>
       <c r="H18">
-        <v>17.60508060008631</v>
+        <v>12.01490044710645</v>
       </c>
       <c r="I18">
-        <v>20.99932786110949</v>
+        <v>12.83493454365778</v>
       </c>
       <c r="J18">
-        <v>10.09494526831799</v>
+        <v>6.916337025343013</v>
       </c>
       <c r="K18">
-        <v>15.98963839826362</v>
+        <v>22.4805874543409</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.923507246131175</v>
+        <v>8.050922508239919</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.286518741818433</v>
+        <v>6.977000358729502</v>
       </c>
       <c r="E19">
-        <v>13.44071074494411</v>
+        <v>11.7526742082238</v>
       </c>
       <c r="F19">
-        <v>37.89914951235563</v>
+        <v>31.8879768091718</v>
       </c>
       <c r="G19">
-        <v>43.39697435504051</v>
+        <v>40.51257490993537</v>
       </c>
       <c r="H19">
-        <v>17.60778848468058</v>
+        <v>12.00210911509537</v>
       </c>
       <c r="I19">
-        <v>21.00915299962748</v>
+        <v>12.86762073431936</v>
       </c>
       <c r="J19">
-        <v>10.09494566451849</v>
+        <v>6.904104947102692</v>
       </c>
       <c r="K19">
-        <v>15.95716976990753</v>
+        <v>22.38199512634797</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.97250289718358</v>
+        <v>8.180113997629967</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.305871286141727</v>
+        <v>7.08471493127638</v>
       </c>
       <c r="E20">
-        <v>13.46770874482238</v>
+        <v>11.92910932969937</v>
       </c>
       <c r="F20">
-        <v>37.92338082749906</v>
+        <v>32.26911296836547</v>
       </c>
       <c r="G20">
-        <v>43.44993303046454</v>
+        <v>41.07131874261346</v>
       </c>
       <c r="H20">
-        <v>17.59587159041271</v>
+        <v>12.06065826920702</v>
       </c>
       <c r="I20">
-        <v>20.96519803822289</v>
+        <v>12.7209551262342</v>
       </c>
       <c r="J20">
-        <v>10.0950609713675</v>
+        <v>6.959380059291203</v>
       </c>
       <c r="K20">
-        <v>16.10292611866285</v>
+        <v>22.82299647745406</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.134858177492679</v>
+        <v>8.600163111963582</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.371839466904952</v>
+        <v>7.439165339855306</v>
       </c>
       <c r="E21">
-        <v>13.56118054987299</v>
+        <v>12.51499499446946</v>
       </c>
       <c r="F21">
-        <v>38.01787966531521</v>
+        <v>33.57477783643077</v>
       </c>
       <c r="G21">
-        <v>43.64616222670414</v>
+        <v>42.98263701108302</v>
       </c>
       <c r="H21">
-        <v>17.56054936663097</v>
+        <v>12.27515830613874</v>
       </c>
       <c r="I21">
-        <v>20.82204447070198</v>
+        <v>12.23564719496912</v>
       </c>
       <c r="J21">
-        <v>10.0974955692389</v>
+        <v>7.149129893525073</v>
       </c>
       <c r="K21">
-        <v>16.58596522088396</v>
+        <v>24.25848129393493</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.23910951113425</v>
+        <v>8.864229619608569</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.415612405820111</v>
+        <v>7.665163842614593</v>
       </c>
       <c r="E22">
-        <v>13.62426117867986</v>
+        <v>12.89260083062939</v>
       </c>
       <c r="F22">
-        <v>38.08935742058014</v>
+        <v>34.44687989561216</v>
       </c>
       <c r="G22">
-        <v>43.78794309362857</v>
+        <v>44.25718975847971</v>
       </c>
       <c r="H22">
-        <v>17.54099304806429</v>
+        <v>12.42922947233426</v>
       </c>
       <c r="I22">
-        <v>20.73185147214712</v>
+        <v>11.92409036858995</v>
       </c>
       <c r="J22">
-        <v>10.10060979905718</v>
+        <v>7.276182603627731</v>
       </c>
       <c r="K22">
-        <v>16.89615843501431</v>
+        <v>25.16296547045687</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.183649070952803</v>
+        <v>8.724249476529694</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.392192675348369</v>
+        <v>7.545066340377267</v>
       </c>
       <c r="E23">
-        <v>13.59041606095032</v>
+        <v>12.69155727219022</v>
       </c>
       <c r="F23">
-        <v>38.05032188735918</v>
+        <v>33.97969349958217</v>
       </c>
       <c r="G23">
-        <v>43.71104092326956</v>
+        <v>43.57459867217747</v>
       </c>
       <c r="H23">
-        <v>17.55110691889725</v>
+        <v>12.34568767101464</v>
       </c>
       <c r="I23">
-        <v>20.77968177180113</v>
+        <v>12.08985425583827</v>
       </c>
       <c r="J23">
-        <v>10.09880851106497</v>
+        <v>7.208091066244553</v>
       </c>
       <c r="K23">
-        <v>16.7311378301814</v>
+        <v>24.68325666684112</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.969820354328211</v>
+        <v>8.173072081648588</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.304804859958349</v>
+        <v>7.078827491773193</v>
       </c>
       <c r="E24">
-        <v>13.46621558449121</v>
+        <v>11.91944583318587</v>
       </c>
       <c r="F24">
-        <v>37.9220008591951</v>
+        <v>32.24808827674859</v>
       </c>
       <c r="G24">
-        <v>43.44695573593714</v>
+        <v>41.04050689232722</v>
       </c>
       <c r="H24">
-        <v>17.59650829892038</v>
+        <v>12.05737771961231</v>
       </c>
       <c r="I24">
-        <v>20.96759477171392</v>
+        <v>12.7289812610284</v>
       </c>
       <c r="J24">
-        <v>10.09504693170549</v>
+        <v>6.956329502242629</v>
       </c>
       <c r="K24">
-        <v>16.09494563248269</v>
+        <v>22.79895451612445</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.73233311627019</v>
+        <v>7.533781720256679</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.213669708196267</v>
+        <v>6.552402454972447</v>
       </c>
       <c r="E25">
-        <v>13.34122307107216</v>
+        <v>11.06507488631462</v>
       </c>
       <c r="F25">
-        <v>37.82550284960551</v>
+        <v>30.46088158579291</v>
       </c>
       <c r="G25">
-        <v>43.22080287479503</v>
+        <v>38.41660785671876</v>
       </c>
       <c r="H25">
-        <v>17.66054348114377</v>
+        <v>11.80192861756262</v>
       </c>
       <c r="I25">
-        <v>21.18480376476461</v>
+        <v>13.44230049466087</v>
       </c>
       <c r="J25">
-        <v>10.09754431064214</v>
+        <v>6.69763856917063</v>
       </c>
       <c r="K25">
-        <v>15.3885727167179</v>
+        <v>20.61702193591753</v>
       </c>
       <c r="L25">
         <v>0</v>
